--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2662494.363181373</v>
+        <v>-2663206.665004416</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167214.7199159989</v>
+        <v>167214.719915999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058539</v>
+        <v>632041.4518058542</v>
       </c>
     </row>
     <row r="9">
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6238954891594</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>62.47283396377202</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240818</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929897</v>
+        <v>16.73328122929903</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675138</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958189</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.75475048280327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,13 +1449,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298063</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>33.09778591680149</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,13 +1464,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>132.3064353678654</v>
+        <v>13.44252716693651</v>
       </c>
       <c r="T12" t="n">
-        <v>188.4979333192472</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382075</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233439</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W12" t="n">
-        <v>188.4979333192472</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640275</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095776</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256626</v>
+        <v>25.28169700256631</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U13" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138205</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W13" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517467</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891594</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>71.67199272182125</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240818</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929897</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.3176172467514</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.5067614689333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,16 +1686,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.369887371298063</v>
+        <v>9.36988737129812</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.916142401065429</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.230418637765892</v>
       </c>
       <c r="J15" t="n">
         <v>52.47517038390259</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44252716693645</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242242</v>
+        <v>36.82265945242248</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382075</v>
+        <v>59.07980534382081</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233439</v>
+        <v>62.50065676233444</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394373</v>
+        <v>88.55631942394379</v>
       </c>
       <c r="X15" t="n">
-        <v>39.16465028640275</v>
+        <v>39.1646502864028</v>
       </c>
       <c r="Y15" t="n">
-        <v>188.4979333192472</v>
+        <v>45.23602198095782</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256626</v>
+        <v>25.28169700256631</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311276</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725521</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96075103138205</v>
+        <v>66.9607510313821</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517467</v>
+        <v>43.77119125517473</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110062</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524306</v>
       </c>
       <c r="E17" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F17" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G17" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1932,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>41.39237566439083</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>119.4115741259922</v>
+      </c>
+      <c r="X18" t="n">
         <v>188.4979333192472</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,10 +2175,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I21" t="n">
-        <v>29.38479091276349</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>126.3059611044991</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156616</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>28.40500911788291</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>14.01739157958309</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.4979333192474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2567,13 +2567,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H26" t="n">
         <v>133.5366480845496</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818309</v>
+        <v>8.981130875818252</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="27">
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>31.15071791036241</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5907913200043</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489347</v>
+        <v>214.9709236054903</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2280694968886</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140131</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301066</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X27" t="n">
-        <v>41.45645467488686</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456468</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241597</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167487</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C29" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D29" t="n">
         <v>124.2874091182263</v>
@@ -2804,13 +2804,13 @@
         <v>189.7144991160125</v>
       </c>
       <c r="G29" t="n">
-        <v>205.3534224386476</v>
+        <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845497</v>
+        <v>133.5366480845496</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147511</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444725</v>
+        <v>14.03224403444719</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818323</v>
+        <v>8.981130875818264</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66579096864882</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W29" t="n">
-        <v>124.411713301766</v>
+        <v>124.4117133017659</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.800816894449</v>
+        <v>168.8008168944489</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2871,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>74.36254688575272</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.486173081489347</v>
+        <v>1.48617308148929</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74331897288768</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16417039140131</v>
+        <v>27.16417039140126</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21983305301066</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X30" t="n">
-        <v>104.1573098008571</v>
+        <v>3.828163915469617</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.899535610024685</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95329384217963</v>
+        <v>21.95329384217957</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27680792632208</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U31" t="n">
-        <v>75.17180644456468</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62426466044897</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82595656533439</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X31" t="n">
-        <v>8.434704884241597</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.656522290167487</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>123.4596992513621</v>
       </c>
       <c r="E32" t="n">
-        <v>157.1664516707709</v>
+        <v>157.166451670771</v>
       </c>
       <c r="F32" t="n">
         <v>188.8867892491483</v>
@@ -3044,10 +3044,10 @@
         <v>204.5257125717833</v>
       </c>
       <c r="H32" t="n">
-        <v>132.7089382176853</v>
+        <v>132.7089382176854</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.20453416758295</v>
+        <v>13.20453416758298</v>
       </c>
       <c r="T32" t="n">
-        <v>8.153421008954012</v>
+        <v>8.153421008954041</v>
       </c>
       <c r="U32" t="n">
-        <v>35.83808110178452</v>
+        <v>35.83808110178455</v>
       </c>
       <c r="V32" t="n">
         <v>106.5673232182868</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3117,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>23.01207494913695</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.86945587416103</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,16 +3159,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250511</v>
+        <v>0.6584632146250794</v>
       </c>
       <c r="U33" t="n">
-        <v>22.91560910602338</v>
+        <v>22.91560910602341</v>
       </c>
       <c r="V33" t="n">
-        <v>26.33646052453702</v>
+        <v>26.33646052453705</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>259.0241484071101</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.12558397531534</v>
+        <v>21.12558397531536</v>
       </c>
       <c r="T34" t="n">
-        <v>9.449098059457782</v>
+        <v>9.44909805945781</v>
       </c>
       <c r="U34" t="n">
-        <v>74.34409657770038</v>
+        <v>74.34409657770041</v>
       </c>
       <c r="V34" t="n">
-        <v>30.79655479358468</v>
+        <v>30.7965547935847</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9982466984701</v>
+        <v>75.99824669847013</v>
       </c>
       <c r="X34" t="n">
-        <v>7.606995017377301</v>
+        <v>7.606995017377329</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.828812423303191</v>
+        <v>2.828812423303219</v>
       </c>
     </row>
     <row r="35">
@@ -3351,22 +3351,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>126.5373096782388</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439873</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>4.424626169311298</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3579,19 +3579,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>65.42094839095847</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.9668065901279</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.86945587416103</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3876,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>35.36064180112321</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>22.14795470833574</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>39.72613402942294</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>5.050307836489424</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69481436153555</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C8" t="n">
         <v>6.719070557086891</v>
@@ -4844,10 +4844,10 @@
         <v>6.590454258427762</v>
       </c>
       <c r="X8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2559399712010781</v>
+        <v>6.719070557086891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="G9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,46 +4887,46 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>3.42319711481442</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
-        <v>6.462484272827225</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
       </c>
       <c r="Q9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="R9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="S9" t="n">
-        <v>12.79699856005391</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="T9" t="n">
-        <v>9.565433267111001</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="U9" t="n">
-        <v>6.333867974168094</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="V9" t="n">
-        <v>3.102302681225188</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2559399712010781</v>
+        <v>9.950635850029798</v>
       </c>
     </row>
     <row r="10">
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>430.2145153431304</v>
+        <v>268.5856602039431</v>
       </c>
       <c r="C11" t="n">
-        <v>430.2145153431304</v>
+        <v>268.5856602039431</v>
       </c>
       <c r="D11" t="n">
-        <v>268.9782572732726</v>
+        <v>268.5856602039431</v>
       </c>
       <c r="E11" t="n">
-        <v>268.9782572732726</v>
+        <v>268.5856602039431</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732726</v>
+        <v>78.18370735621859</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554805</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554805</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K11" t="n">
-        <v>115.4328134021289</v>
+        <v>285.139674688828</v>
       </c>
       <c r="L11" t="n">
-        <v>162.153655882889</v>
+        <v>331.8605171695881</v>
       </c>
       <c r="M11" t="n">
-        <v>243.0155549698363</v>
+        <v>412.7224162565354</v>
       </c>
       <c r="N11" t="n">
-        <v>318.4008885624853</v>
+        <v>488.0503093922279</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485401</v>
+        <v>522.2709440848956</v>
       </c>
       <c r="P11" t="n">
         <v>666.4395714324994</v>
@@ -5063,28 +5063,28 @@
         <v>753.9917332769888</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049697</v>
+        <v>737.0894290049696</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049697</v>
+        <v>687.2220245550905</v>
       </c>
       <c r="T11" t="n">
-        <v>692.3241590587561</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="U11" t="n">
-        <v>619.5945859884713</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="V11" t="n">
-        <v>475.4213340126287</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="W11" t="n">
-        <v>475.4213340126287</v>
+        <v>642.4567546088768</v>
       </c>
       <c r="X11" t="n">
-        <v>475.4213340126287</v>
+        <v>458.9876130516664</v>
       </c>
       <c r="Y11" t="n">
-        <v>430.2145153431304</v>
+        <v>458.9876130516664</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.54436736382065</v>
+        <v>398.7673935891306</v>
       </c>
       <c r="C12" t="n">
-        <v>15.07983466553978</v>
+        <v>389.3028608908497</v>
       </c>
       <c r="D12" t="n">
-        <v>15.07983466553978</v>
+        <v>228.5227446518814</v>
       </c>
       <c r="E12" t="n">
-        <v>15.07983466553978</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="F12" t="n">
-        <v>15.07983466553978</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="G12" t="n">
-        <v>15.07983466553978</v>
+        <v>195.0906376652133</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553978</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="K12" t="n">
-        <v>53.0431606814202</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L12" t="n">
         <v>170.3760798097943</v>
@@ -5139,31 +5139,31 @@
         <v>753.9917332769888</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="S12" t="n">
-        <v>613.4100249517096</v>
+        <v>733.4745786900216</v>
       </c>
       <c r="T12" t="n">
-        <v>423.0080721039852</v>
+        <v>696.2799731825241</v>
       </c>
       <c r="U12" t="n">
-        <v>363.3315010496208</v>
+        <v>636.6034021281597</v>
       </c>
       <c r="V12" t="n">
-        <v>300.1995245220103</v>
+        <v>573.4714256005492</v>
       </c>
       <c r="W12" t="n">
-        <v>109.7975716742858</v>
+        <v>484.0205978995959</v>
       </c>
       <c r="X12" t="n">
-        <v>70.23731885973757</v>
+        <v>444.4603450850476</v>
       </c>
       <c r="Y12" t="n">
-        <v>24.54436736382065</v>
+        <v>398.7673935891306</v>
       </c>
     </row>
     <row r="13">
@@ -5185,61 +5185,61 @@
         <v>15.07983466553978</v>
       </c>
       <c r="F13" t="n">
-        <v>15.07983466553978</v>
+        <v>53.90900278081472</v>
       </c>
       <c r="G13" t="n">
-        <v>15.07983466553978</v>
+        <v>53.90900278081472</v>
       </c>
       <c r="H13" t="n">
-        <v>15.07983466553978</v>
+        <v>53.90900278081472</v>
       </c>
       <c r="I13" t="n">
-        <v>15.07983466553978</v>
+        <v>67.07134590506645</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07983466553978</v>
+        <v>124.4009159095237</v>
       </c>
       <c r="K13" t="n">
-        <v>47.27341799310332</v>
+        <v>234.4080170832628</v>
       </c>
       <c r="L13" t="n">
-        <v>191.8099014189434</v>
+        <v>360.7048354267196</v>
       </c>
       <c r="M13" t="n">
-        <v>191.8099014189434</v>
+        <v>360.7048354267196</v>
       </c>
       <c r="N13" t="n">
-        <v>351.8217271348921</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8217271348921</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="P13" t="n">
-        <v>470.2946957351829</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426677</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633079</v>
+        <v>495.1795934633083</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015779</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578858</v>
+        <v>391.2370939578861</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V13" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117134</v>
+        <v>98.68003660117145</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099489</v>
+        <v>54.46671210099495</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553978</v>
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.8125624954061</v>
+        <v>258.0547106022105</v>
       </c>
       <c r="C14" t="n">
-        <v>239.8125624954061</v>
+        <v>258.0547106022105</v>
       </c>
       <c r="D14" t="n">
-        <v>78.57630442554805</v>
+        <v>258.0547106022105</v>
       </c>
       <c r="E14" t="n">
-        <v>78.57630442554805</v>
+        <v>258.0547106022105</v>
       </c>
       <c r="F14" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="G14" t="n">
-        <v>78.57630442554805</v>
+        <v>185.6587583579466</v>
       </c>
       <c r="H14" t="n">
-        <v>78.57630442554805</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4328134021289</v>
+        <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1396746888281</v>
+        <v>285.139674688828</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7526286748829</v>
+        <v>471.7526286748828</v>
       </c>
       <c r="M14" t="n">
-        <v>552.6145277618302</v>
+        <v>552.6145277618301</v>
       </c>
       <c r="N14" t="n">
-        <v>627.9424208975227</v>
+        <v>627.9424208975225</v>
       </c>
       <c r="O14" t="n">
-        <v>662.1630555901904</v>
+        <v>662.1630555901903</v>
       </c>
       <c r="P14" t="n">
         <v>666.4395714324994</v>
@@ -5300,28 +5300,28 @@
         <v>753.9917332769888</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0894290049697</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="S14" t="n">
-        <v>737.0894290049697</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="T14" t="n">
-        <v>692.3241590587562</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U14" t="n">
-        <v>692.3241590587562</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V14" t="n">
-        <v>548.1509070829136</v>
+        <v>609.8184813011462</v>
       </c>
       <c r="W14" t="n">
-        <v>386.7890892317024</v>
+        <v>448.456663449935</v>
       </c>
       <c r="X14" t="n">
-        <v>386.7890892317024</v>
+        <v>448.456663449935</v>
       </c>
       <c r="Y14" t="n">
-        <v>239.8125624954061</v>
+        <v>448.456663449935</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>254.0583922373234</v>
+        <v>85.86314415338484</v>
       </c>
       <c r="C15" t="n">
-        <v>244.5938595390425</v>
+        <v>76.3986114551039</v>
       </c>
       <c r="D15" t="n">
-        <v>244.5938595390425</v>
+        <v>76.3986114551039</v>
       </c>
       <c r="E15" t="n">
-        <v>71.03065566045697</v>
+        <v>76.3986114551039</v>
       </c>
       <c r="F15" t="n">
-        <v>68.0850572755424</v>
+        <v>76.3986114551039</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0850572755424</v>
+        <v>76.3986114551039</v>
       </c>
       <c r="H15" t="n">
-        <v>68.0850572755424</v>
+        <v>76.3986114551039</v>
       </c>
       <c r="I15" t="n">
         <v>68.0850572755424</v>
@@ -5358,7 +5358,7 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142016</v>
+        <v>53.04316068142018</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097943</v>
@@ -5376,31 +5376,31 @@
         <v>753.9917332769888</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R15" t="n">
-        <v>747.0528889596544</v>
+        <v>610.9722821020003</v>
       </c>
       <c r="S15" t="n">
-        <v>733.4745786900216</v>
+        <v>420.5703292542759</v>
       </c>
       <c r="T15" t="n">
-        <v>696.2799731825243</v>
+        <v>383.3757237467784</v>
       </c>
       <c r="U15" t="n">
-        <v>636.6034021281598</v>
+        <v>323.699152692414</v>
       </c>
       <c r="V15" t="n">
-        <v>573.4714256005493</v>
+        <v>260.5671761648034</v>
       </c>
       <c r="W15" t="n">
-        <v>484.0205978995961</v>
+        <v>171.1163484638501</v>
       </c>
       <c r="X15" t="n">
-        <v>444.4603450850478</v>
+        <v>131.5560956493018</v>
       </c>
       <c r="Y15" t="n">
-        <v>254.0583922373234</v>
+        <v>85.86314415338484</v>
       </c>
     </row>
     <row r="16">
@@ -5434,49 +5434,49 @@
         <v>15.07983466553978</v>
       </c>
       <c r="J16" t="n">
-        <v>72.40940466999709</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K16" t="n">
-        <v>72.40940466999709</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L16" t="n">
-        <v>216.9458880958372</v>
+        <v>70.04006430634882</v>
       </c>
       <c r="M16" t="n">
-        <v>216.9458880958372</v>
+        <v>221.4421490729815</v>
       </c>
       <c r="N16" t="n">
-        <v>216.9458880958372</v>
+        <v>381.4539747889301</v>
       </c>
       <c r="O16" t="n">
-        <v>356.2085744495753</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="P16" t="n">
-        <v>470.2946957351829</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426677</v>
+        <v>520.7166611426682</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633079</v>
+        <v>495.1795934633083</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015779</v>
+        <v>437.3111286015782</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2370939578858</v>
+        <v>391.2370939578861</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604136</v>
       </c>
       <c r="V16" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064922</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117134</v>
+        <v>98.68003660117145</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099489</v>
+        <v>54.46671210099495</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553978</v>
@@ -5489,55 +5489,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961947</v>
+        <v>463.3923242961946</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040792</v>
+        <v>410.101590504079</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3697837210056</v>
+        <v>369.3697837210046</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5907522718625</v>
+        <v>294.5907522718614</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940543</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553978</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993312</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95335735993312</v>
+        <v>257.5663113459878</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95335735993312</v>
+        <v>257.5663113459878</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6741998406933</v>
+        <v>304.287153826748</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5360989276406</v>
+        <v>385.1490529136952</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8639920633329</v>
+        <v>460.4769460493877</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0846267560007</v>
+        <v>494.6975807420554</v>
       </c>
       <c r="P17" t="n">
-        <v>308.0846267560007</v>
+        <v>531.3951392159325</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.1637696110815</v>
+        <v>531.3951392159325</v>
       </c>
       <c r="R17" t="n">
-        <v>563.704233900253</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="S17" t="n">
         <v>632.9356035051039</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378.7598487851941</v>
+        <v>257.4973315425786</v>
       </c>
       <c r="C18" t="n">
-        <v>378.7598487851941</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="D18" t="n">
-        <v>378.7598487851941</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E18" t="n">
-        <v>378.7598487851941</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F18" t="n">
-        <v>218.3321325024382</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G18" t="n">
         <v>68.0850572755424</v>
@@ -5595,10 +5595,10 @@
         <v>15.07983466553978</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142016</v>
       </c>
       <c r="L18" t="n">
-        <v>170.3760798097943</v>
+        <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
         <v>352.0527264137997</v>
@@ -5613,31 +5613,31 @@
         <v>753.9917332769888</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R18" t="n">
-        <v>610.9722821020002</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="S18" t="n">
-        <v>610.9722821020002</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="T18" t="n">
-        <v>610.9722821020002</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="U18" t="n">
-        <v>569.1618016329186</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="V18" t="n">
-        <v>378.7598487851941</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="W18" t="n">
-        <v>378.7598487851941</v>
+        <v>626.4351373172382</v>
       </c>
       <c r="X18" t="n">
-        <v>378.7598487851941</v>
+        <v>436.0331844695137</v>
       </c>
       <c r="Y18" t="n">
-        <v>378.7598487851941</v>
+        <v>436.0331844695137</v>
       </c>
     </row>
     <row r="19">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961946</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040792</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D20" t="n">
         <v>369.3697837210053</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940552</v>
+        <v>187.7709757940546</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116215</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553978</v>
@@ -5750,31 +5750,31 @@
         <v>70.95335735993307</v>
       </c>
       <c r="J20" t="n">
-        <v>139.9600105181306</v>
+        <v>107.6509158338101</v>
       </c>
       <c r="K20" t="n">
-        <v>139.9600105181306</v>
+        <v>107.6509158338101</v>
       </c>
       <c r="L20" t="n">
-        <v>186.6808529988908</v>
+        <v>154.3717583145703</v>
       </c>
       <c r="M20" t="n">
-        <v>267.5427520858381</v>
+        <v>235.2336574015176</v>
       </c>
       <c r="N20" t="n">
-        <v>342.8706452215305</v>
+        <v>310.56155053721</v>
       </c>
       <c r="O20" t="n">
-        <v>377.0912799141983</v>
+        <v>344.7821852298778</v>
       </c>
       <c r="P20" t="n">
-        <v>377.0912799141983</v>
+        <v>344.7821852298778</v>
       </c>
       <c r="Q20" t="n">
-        <v>563.704233900253</v>
+        <v>531.3951392159325</v>
       </c>
       <c r="R20" t="n">
-        <v>563.704233900253</v>
+        <v>632.9356035051039</v>
       </c>
       <c r="S20" t="n">
         <v>632.9356035051039</v>
@@ -5786,16 +5786,16 @@
         <v>753.9917332769888</v>
       </c>
       <c r="V20" t="n">
-        <v>730.3229325879304</v>
+        <v>730.3229325879305</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235037</v>
+        <v>689.465566023504</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530777</v>
+        <v>626.500875753078</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>568.5170360327193</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="C21" t="n">
-        <v>379.104761765683</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="D21" t="n">
-        <v>218.3246455267147</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="E21" t="n">
-        <v>44.76144164812916</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="F21" t="n">
-        <v>44.76144164812916</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="G21" t="n">
-        <v>44.76144164812916</v>
+        <v>250.5333042915615</v>
       </c>
       <c r="H21" t="n">
-        <v>44.76144164812916</v>
+        <v>123.5277239018906</v>
       </c>
       <c r="I21" t="n">
         <v>15.07983466553978</v>
@@ -5850,31 +5850,31 @@
         <v>753.9917332769888</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="W21" t="n">
-        <v>747.0528889596544</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="X21" t="n">
-        <v>747.0528889596544</v>
+        <v>556.65093611193</v>
       </c>
       <c r="Y21" t="n">
-        <v>747.0528889596544</v>
+        <v>429.0691572184966</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3923242961956</v>
+        <v>463.3923242961947</v>
       </c>
       <c r="C23" t="n">
-        <v>410.10159050408</v>
+        <v>410.1015905040791</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3697837210062</v>
+        <v>369.3697837210055</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5907522718627</v>
+        <v>294.5907522718624</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940555</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
         <v>65.15430707116217</v>
       </c>
       <c r="H23" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I23" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="J23" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="K23" t="n">
-        <v>70.95335735993308</v>
+        <v>70.95335735993307</v>
       </c>
       <c r="L23" t="n">
-        <v>257.566311345988</v>
+        <v>117.6741998406932</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4282104329353</v>
+        <v>198.5360989276405</v>
       </c>
       <c r="N23" t="n">
-        <v>413.7561035686277</v>
+        <v>385.1490529136953</v>
       </c>
       <c r="O23" t="n">
-        <v>447.9767382612955</v>
+        <v>571.7620068997501</v>
       </c>
       <c r="P23" t="n">
-        <v>462.1637696110826</v>
+        <v>571.7620068997501</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.1637696110826</v>
+        <v>571.7620068997501</v>
       </c>
       <c r="R23" t="n">
-        <v>563.7042339002539</v>
+        <v>610.5283920402444</v>
       </c>
       <c r="S23" t="n">
-        <v>632.9356035051048</v>
+        <v>679.7597616450953</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1675751369984</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9917332769897</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="V23" t="n">
-        <v>730.3229325879314</v>
+        <v>730.3229325879306</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4655660235049</v>
+        <v>689.4655660235039</v>
       </c>
       <c r="X23" t="n">
-        <v>626.500875753079</v>
+        <v>626.5008757530779</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122047</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>378.1150831849955</v>
+        <v>418.2774477815469</v>
       </c>
       <c r="C24" t="n">
-        <v>378.1150831849955</v>
+        <v>228.8651735145106</v>
       </c>
       <c r="D24" t="n">
-        <v>217.3349669460273</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="E24" t="n">
-        <v>43.77176306744173</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="F24" t="n">
-        <v>15.0798346655398</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="G24" t="n">
-        <v>15.0798346655398</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="H24" t="n">
-        <v>15.0798346655398</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="I24" t="n">
-        <v>15.0798346655398</v>
+        <v>68.0850572755424</v>
       </c>
       <c r="J24" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142018</v>
+        <v>53.04316068142017</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097943</v>
@@ -6078,40 +6078,40 @@
         <v>352.0527264137997</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998546</v>
+        <v>538.6656803998545</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188891</v>
+        <v>670.366620018889</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769897</v>
+        <v>753.9917332769888</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596553</v>
+        <v>747.0528889596545</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0528889596553</v>
+        <v>610.9722821020003</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0528889596553</v>
+        <v>610.9722821020003</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0528889596553</v>
+        <v>610.9722821020003</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0528889596553</v>
+        <v>596.8133007084821</v>
       </c>
       <c r="V24" t="n">
-        <v>747.0528889596553</v>
+        <v>596.8133007084821</v>
       </c>
       <c r="W24" t="n">
-        <v>747.0528889596553</v>
+        <v>596.8133007084821</v>
       </c>
       <c r="X24" t="n">
-        <v>747.0528889596553</v>
+        <v>596.8133007084821</v>
       </c>
       <c r="Y24" t="n">
-        <v>556.6509361119306</v>
+        <v>596.8133007084821</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="C25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="D25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="E25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="F25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="G25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="H25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="I25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="J25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="K25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="L25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="M25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="N25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="O25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="P25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="R25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="S25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="T25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="U25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="V25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="W25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="X25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.0798346655398</v>
+        <v>15.07983466553978</v>
       </c>
     </row>
     <row r="26">
@@ -6203,49 +6203,49 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C26" t="n">
-        <v>882.796657987411</v>
+        <v>882.7966579874112</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2538204942531</v>
+        <v>757.2538204942533</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350257</v>
+        <v>597.6637583350259</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0329511471343</v>
+        <v>406.0329511471345</v>
       </c>
       <c r="G26" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141572</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71974859845028</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
         <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581074</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.90312621256</v>
+        <v>1212.903126212561</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.47366392399</v>
+        <v>1458.473663923989</v>
       </c>
       <c r="P26" t="n">
-        <v>1654.882514315173</v>
+        <v>1654.882514315172</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.417797666887</v>
+        <v>1777.417797666886</v>
       </c>
       <c r="R26" t="n">
         <v>1795.834970757104</v>
@@ -6254,16 +6254,16 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.589137514412</v>
+        <v>1772.589137514411</v>
       </c>
       <c r="U26" t="n">
         <v>1735.552985020827</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.073153621685</v>
+        <v>1627.073153621684</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.404756347174</v>
+        <v>1501.404756347173</v>
       </c>
       <c r="X26" t="n">
         <v>1353.629035366663</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>196.344415697898</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="C27" t="n">
-        <v>196.344415697898</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="D27" t="n">
-        <v>196.344415697898</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514209</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514209</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514209</v>
+        <v>120.3872936517734</v>
       </c>
       <c r="I27" t="n">
-        <v>35.91669941514209</v>
+        <v>88.92192202514468</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102247</v>
+        <v>73.88002543102246</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593966</v>
@@ -6324,31 +6324,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1817761339611</v>
+        <v>650.101169276307</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1817761339611</v>
+        <v>456.5751174379188</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6805912031638</v>
+        <v>239.432770361666</v>
       </c>
       <c r="U27" t="n">
-        <v>545.0562785800439</v>
+        <v>215.4496198840018</v>
       </c>
       <c r="V27" t="n">
-        <v>517.6177226291335</v>
+        <v>188.0110639330914</v>
       </c>
       <c r="W27" t="n">
-        <v>463.8603155048803</v>
+        <v>134.2536568088383</v>
       </c>
       <c r="X27" t="n">
-        <v>421.9851087625703</v>
+        <v>130.3868245709902</v>
       </c>
       <c r="Y27" t="n">
-        <v>196.344415697898</v>
+        <v>120.3872936517734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="D28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="E28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="F28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="G28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="H28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="I28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="J28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="K28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="L28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="M28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="N28" t="n">
-        <v>230.9116466383145</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="O28" t="n">
-        <v>230.9116466383145</v>
+        <v>35.91669941514207</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760096</v>
+        <v>180.7574272613005</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909797</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239877</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032153</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.13006019737349</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389713</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91669941514209</v>
+        <v>35.91669941514207</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>1020.898422489611</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874112</v>
+        <v>882.7966579874109</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942533</v>
+        <v>757.253820494253</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6637583350258</v>
+        <v>597.6637583350256</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471344</v>
+        <v>406.0329511471342</v>
       </c>
       <c r="G29" t="n">
-        <v>198.605251714157</v>
+        <v>198.6052517141569</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859845027</v>
+        <v>63.71974859845021</v>
       </c>
       <c r="I29" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589552</v>
+        <v>171.2527996589549</v>
       </c>
       <c r="K29" t="n">
         <v>375.942782452878</v>
@@ -6470,16 +6470,16 @@
         <v>634.013527952399</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581071</v>
+        <v>926.2253300581075</v>
       </c>
       <c r="N29" t="n">
         <v>1212.903126212561</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.473663923989</v>
+        <v>1458.47366392399</v>
       </c>
       <c r="P29" t="n">
-        <v>1654.882514315172</v>
+        <v>1654.882514315173</v>
       </c>
       <c r="Q29" t="n">
         <v>1777.417797666886</v>
@@ -6491,19 +6491,19 @@
         <v>1781.660986883925</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.589137514411</v>
+        <v>1772.589137514412</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.552985020826</v>
+        <v>1735.552985020827</v>
       </c>
       <c r="V29" t="n">
         <v>1627.073153621684</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.404756347173</v>
+        <v>1501.404756347174</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.629035366662</v>
+        <v>1353.629035366663</v>
       </c>
       <c r="Y29" t="n">
         <v>1183.123159715704</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>385.7566899649343</v>
+        <v>271.4580994208806</v>
       </c>
       <c r="C30" t="n">
-        <v>196.344415697898</v>
+        <v>271.4580994208806</v>
       </c>
       <c r="D30" t="n">
-        <v>196.344415697898</v>
+        <v>271.4580994208806</v>
       </c>
       <c r="E30" t="n">
         <v>196.344415697898</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J30" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K30" t="n">
         <v>73.88002543102246</v>
@@ -6561,31 +6561,31 @@
         <v>793.1206204512955</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1817761339611</v>
+        <v>786.1817761339612</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6805912031638</v>
+        <v>784.6805912031639</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6974407254994</v>
+        <v>760.6974407254996</v>
       </c>
       <c r="V30" t="n">
-        <v>733.258884774589</v>
+        <v>733.2588847745893</v>
       </c>
       <c r="W30" t="n">
-        <v>679.5014776503358</v>
+        <v>679.5014776503361</v>
       </c>
       <c r="X30" t="n">
-        <v>574.2920738110862</v>
+        <v>675.634645412488</v>
       </c>
       <c r="Y30" t="n">
-        <v>564.2925428918693</v>
+        <v>449.9939523478157</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="N31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
       <c r="O31" t="n">
-        <v>112.706424068495</v>
+        <v>180.7574272613006</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1625141760096</v>
+        <v>180.7574272613006</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1625141760096</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9874698909796</v>
+        <v>243.9874698909794</v>
       </c>
       <c r="T31" t="n">
-        <v>233.6068558239876</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6757382032152</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7320365259941</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W31" t="n">
-        <v>48.13006019737347</v>
+        <v>48.13006019737336</v>
       </c>
       <c r="X31" t="n">
-        <v>39.6101562738971</v>
+        <v>39.61015627389705</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.91669941514207</v>
+        <v>35.91669941514208</v>
       </c>
     </row>
     <row r="32">
@@ -6677,22 +6677,22 @@
         <v>1014.789988510278</v>
       </c>
       <c r="C32" t="n">
-        <v>877.5242945806682</v>
+        <v>877.5242945806684</v>
       </c>
       <c r="D32" t="n">
-        <v>752.8175276601004</v>
+        <v>752.8175276601006</v>
       </c>
       <c r="E32" t="n">
-        <v>594.0635360734631</v>
+        <v>594.0635360734633</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2687994581618</v>
+        <v>403.2687994581619</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977754</v>
+        <v>196.6771705977751</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465899</v>
+        <v>62.62773805465902</v>
       </c>
       <c r="I32" t="n">
         <v>35.660759443941</v>
@@ -6701,22 +6701,22 @@
         <v>171.8162924559495</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3257080180681</v>
+        <v>377.325708018068</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857848</v>
+        <v>636.2158862857847</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596887</v>
+        <v>909.3311676570759</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082338</v>
+        <v>1196.828396579725</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.218367059349</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.362603721341</v>
+        <v>1640.446650218728</v>
       </c>
       <c r="Q32" t="n">
         <v>1763.801366338636</v>
@@ -6728,19 +6728,19 @@
         <v>1769.700058896461</v>
       </c>
       <c r="T32" t="n">
-        <v>1761.464280099537</v>
+        <v>1761.464280099538</v>
       </c>
       <c r="U32" t="n">
         <v>1725.264198178543</v>
       </c>
       <c r="V32" t="n">
-        <v>1617.62043735199</v>
+        <v>1617.620437351991</v>
       </c>
       <c r="W32" t="n">
-        <v>1492.788110650069</v>
+        <v>1492.78811065007</v>
       </c>
       <c r="X32" t="n">
-        <v>1345.848460242149</v>
+        <v>1345.84846024215</v>
       </c>
       <c r="Y32" t="n">
         <v>1176.178655163781</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.90527959458439</v>
+        <v>35.660759443941</v>
       </c>
       <c r="C33" t="n">
-        <v>58.90527959458439</v>
+        <v>35.660759443941</v>
       </c>
       <c r="D33" t="n">
-        <v>58.90527959458439</v>
+        <v>35.660759443941</v>
       </c>
       <c r="E33" t="n">
-        <v>58.90527959458439</v>
+        <v>35.660759443941</v>
       </c>
       <c r="F33" t="n">
         <v>35.660759443941</v>
@@ -6780,7 +6780,7 @@
         <v>35.660759443941</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982137</v>
+        <v>73.62408545982139</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881955</v>
@@ -6798,31 +6798,31 @@
         <v>792.8646804800944</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.92583616276</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="R33" t="n">
-        <v>785.92583616276</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="S33" t="n">
-        <v>785.92583616276</v>
+        <v>792.8646804800944</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045529</v>
+        <v>792.1995661218873</v>
       </c>
       <c r="U33" t="n">
-        <v>762.1136418994787</v>
+        <v>769.0524862168131</v>
       </c>
       <c r="V33" t="n">
-        <v>735.5111565211585</v>
+        <v>742.4500008384929</v>
       </c>
       <c r="W33" t="n">
-        <v>682.5898199694955</v>
+        <v>480.809446891917</v>
       </c>
       <c r="X33" t="n">
-        <v>463.0818255861918</v>
+        <v>261.3014525086134</v>
       </c>
       <c r="Y33" t="n">
-        <v>237.4411325215195</v>
+        <v>35.660759443941</v>
       </c>
     </row>
     <row r="34">
@@ -6868,37 +6868,37 @@
         <v>35.660759443941</v>
       </c>
       <c r="N34" t="n">
-        <v>35.660759443941</v>
+        <v>231.475139435309</v>
       </c>
       <c r="O34" t="n">
-        <v>35.660759443941</v>
+        <v>231.475139435309</v>
       </c>
       <c r="P34" t="n">
-        <v>189.9362823196512</v>
+        <v>231.475139435309</v>
       </c>
       <c r="Q34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="R34" t="n">
-        <v>260.0540801966771</v>
+        <v>260.0540801966774</v>
       </c>
       <c r="S34" t="n">
-        <v>238.7151064842374</v>
+        <v>238.7151064842376</v>
       </c>
       <c r="T34" t="n">
-        <v>229.1705629898356</v>
+        <v>229.1705629898358</v>
       </c>
       <c r="U34" t="n">
-        <v>154.0755159416534</v>
+        <v>154.0755159416535</v>
       </c>
       <c r="V34" t="n">
-        <v>122.9678848370224</v>
+        <v>122.9678848370225</v>
       </c>
       <c r="W34" t="n">
-        <v>46.201979080992</v>
+        <v>46.20197908099205</v>
       </c>
       <c r="X34" t="n">
-        <v>38.51814573010584</v>
+        <v>38.51814573010586</v>
       </c>
       <c r="Y34" t="n">
         <v>35.660759443941</v>
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361097</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.083381551352</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756364</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338511</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998704</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="J35" t="n">
-        <v>244.900543598745</v>
+        <v>175.0423168111876</v>
       </c>
       <c r="K35" t="n">
-        <v>244.900543598745</v>
+        <v>432.8985180875161</v>
       </c>
       <c r="L35" t="n">
-        <v>291.6213860795052</v>
+        <v>479.6193605682762</v>
       </c>
       <c r="M35" t="n">
-        <v>549.4775873558335</v>
+        <v>560.4812596552235</v>
       </c>
       <c r="N35" t="n">
-        <v>624.8054804915259</v>
+        <v>635.809152790916</v>
       </c>
       <c r="O35" t="n">
-        <v>659.0261151841937</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="P35" t="n">
-        <v>670.0297874835833</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="Q35" t="n">
-        <v>850.5537443902416</v>
+        <v>850.5537443902421</v>
       </c>
       <c r="R35" t="n">
-        <v>926.9595910354045</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S35" t="n">
-        <v>971.0563429962468</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T35" t="n">
         <v>1020.153696984132</v>
@@ -6971,16 +6971,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.5294845984142</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413453</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.4175233782772</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447608</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>771.1019414684214</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C36" t="n">
-        <v>771.1019414684214</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D36" t="n">
-        <v>771.1019414684214</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E36" t="n">
-        <v>597.5387375898358</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F36" t="n">
-        <v>437.1110213070799</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G36" t="n">
-        <v>309.2955569856266</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H36" t="n">
-        <v>182.2899765959557</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I36" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548268</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L36" t="n">
         <v>176.1331098938568</v>
@@ -7035,31 +7035,31 @@
         <v>778.0407857857558</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684214</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684214</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684214</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684214</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="U36" t="n">
-        <v>771.1019414684214</v>
+        <v>531.4776288453016</v>
       </c>
       <c r="V36" t="n">
-        <v>771.1019414684214</v>
+        <v>288.3979107489357</v>
       </c>
       <c r="W36" t="n">
-        <v>771.1019414684214</v>
+        <v>25.30618411254301</v>
       </c>
       <c r="X36" t="n">
-        <v>771.1019414684214</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.1019414684214</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="N37" t="n">
-        <v>56.03780166411086</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="O37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>623.0190675361098</v>
+        <v>623.0190675361102</v>
       </c>
       <c r="C38" t="n">
-        <v>544.0833815513521</v>
+        <v>544.0833815513525</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7066225756363</v>
+        <v>477.7066225756368</v>
       </c>
       <c r="E38" t="n">
-        <v>377.282638933851</v>
+        <v>377.2826389338515</v>
       </c>
       <c r="F38" t="n">
-        <v>244.8179102634018</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G38" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H38" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I38" t="n">
-        <v>51.57576979998704</v>
+        <v>51.57576979998706</v>
       </c>
       <c r="J38" t="n">
         <v>244.900543598745</v>
       </c>
       <c r="K38" t="n">
-        <v>244.900543598745</v>
+        <v>432.8985180875161</v>
       </c>
       <c r="L38" t="n">
-        <v>502.7567448750734</v>
+        <v>479.6193605682762</v>
       </c>
       <c r="M38" t="n">
-        <v>583.6186439620207</v>
+        <v>560.4812596552235</v>
       </c>
       <c r="N38" t="n">
-        <v>658.9465370977131</v>
+        <v>635.809152790916</v>
       </c>
       <c r="O38" t="n">
-        <v>693.1671717903808</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="P38" t="n">
-        <v>693.1671717903808</v>
+        <v>670.0297874835837</v>
       </c>
       <c r="Q38" t="n">
-        <v>850.5537443902416</v>
+        <v>850.5537443902421</v>
       </c>
       <c r="R38" t="n">
-        <v>926.9595910354045</v>
+        <v>926.959591035405</v>
       </c>
       <c r="S38" t="n">
-        <v>971.0563429962468</v>
+        <v>971.0563429962473</v>
       </c>
       <c r="T38" t="n">
         <v>1020.153696984132</v>
@@ -7208,16 +7208,16 @@
         <v>1041.843237480115</v>
       </c>
       <c r="V38" t="n">
-        <v>992.5294845984142</v>
+        <v>992.5294845984147</v>
       </c>
       <c r="W38" t="n">
-        <v>926.0271658413453</v>
+        <v>926.0271658413458</v>
       </c>
       <c r="X38" t="n">
-        <v>837.4175233782772</v>
+        <v>837.4175233782777</v>
       </c>
       <c r="Y38" t="n">
-        <v>726.0777262447609</v>
+        <v>726.0777262447614</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>73.8420873596049</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="C39" t="n">
-        <v>73.8420873596049</v>
+        <v>515.607901149912</v>
       </c>
       <c r="D39" t="n">
-        <v>73.8420873596049</v>
+        <v>354.8277849109438</v>
       </c>
       <c r="E39" t="n">
-        <v>73.8420873596049</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="F39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I39" t="n">
-        <v>73.8420873596049</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J39" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548268</v>
+        <v>58.8001907654827</v>
       </c>
       <c r="L39" t="n">
         <v>176.1331098938568</v>
@@ -7272,31 +7272,31 @@
         <v>778.0407857857558</v>
       </c>
       <c r="Q39" t="n">
-        <v>776.0541124623943</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="R39" t="n">
-        <v>776.0541124623943</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="S39" t="n">
-        <v>776.0541124623943</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="T39" t="n">
-        <v>776.0541124623943</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="U39" t="n">
-        <v>536.4297998392744</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="V39" t="n">
-        <v>293.3500817429085</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="W39" t="n">
-        <v>293.3500817429085</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="X39" t="n">
-        <v>73.8420873596049</v>
+        <v>771.1019414684215</v>
       </c>
       <c r="Y39" t="n">
-        <v>73.8420873596049</v>
+        <v>771.1019414684215</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T40" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="V40" t="n">
-        <v>39.27276256078068</v>
+        <v>39.27276256078069</v>
       </c>
       <c r="W40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y40" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="41">
@@ -7415,13 +7415,13 @@
         <v>422.5915955308619</v>
       </c>
       <c r="L41" t="n">
-        <v>707.9121095349434</v>
+        <v>523.4617675668866</v>
       </c>
       <c r="M41" t="n">
-        <v>842.9233381771552</v>
+        <v>604.3236666538339</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2512313128476</v>
+        <v>679.6515597895263</v>
       </c>
       <c r="O41" t="n">
         <v>952.4718660055154</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>551.4691699123831</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C42" t="n">
-        <v>362.0568956453468</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D42" t="n">
-        <v>362.0568956453468</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F42" t="n">
         <v>28.06597548400537</v>
@@ -7491,7 +7491,7 @@
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988575</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282599</v>
@@ -7509,31 +7509,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028245</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028245</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028245</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028245</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="U42" t="n">
-        <v>778.3310522028245</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="V42" t="n">
-        <v>778.3310522028245</v>
+        <v>742.61323220169</v>
       </c>
       <c r="W42" t="n">
-        <v>752.3766942618795</v>
+        <v>473.2146629319814</v>
       </c>
       <c r="X42" t="n">
-        <v>752.3766942618795</v>
+        <v>253.7066685486777</v>
       </c>
       <c r="Y42" t="n">
-        <v>730.0050228393181</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="C43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="D43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="E43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="F43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="G43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="H43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="I43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="J43" t="n">
-        <v>28.06597548400537</v>
+        <v>114.4547069863028</v>
       </c>
       <c r="K43" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="L43" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="M43" t="n">
         <v>130.133623560695</v>
@@ -7612,7 +7612,7 @@
         <v>28.06597548400537</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.06597548400537</v>
+        <v>51.69578692129991</v>
       </c>
     </row>
     <row r="44">
@@ -7655,13 +7655,13 @@
         <v>707.9121095349434</v>
       </c>
       <c r="M44" t="n">
-        <v>827.9822855495773</v>
+        <v>1027.373680145212</v>
       </c>
       <c r="N44" t="n">
-        <v>1141.909850208591</v>
+        <v>1102.701573280904</v>
       </c>
       <c r="O44" t="n">
-        <v>1176.130484901259</v>
+        <v>1136.922207973572</v>
       </c>
       <c r="P44" t="n">
         <v>1176.130484901259</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.06597548400537</v>
+        <v>712.2492861513514</v>
       </c>
       <c r="C45" t="n">
-        <v>28.06597548400537</v>
+        <v>522.8370118843151</v>
       </c>
       <c r="D45" t="n">
-        <v>28.06597548400537</v>
+        <v>362.0568956453468</v>
       </c>
       <c r="E45" t="n">
-        <v>28.06597548400537</v>
+        <v>188.4936917667613</v>
       </c>
       <c r="F45" t="n">
         <v>28.06597548400537</v>
@@ -7728,7 +7728,7 @@
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988575</v>
+        <v>66.02930149988576</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282599</v>
@@ -7746,31 +7746,31 @@
         <v>785.2698965201589</v>
       </c>
       <c r="Q45" t="n">
-        <v>780.1685754731999</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="R45" t="n">
-        <v>780.1685754731999</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="S45" t="n">
-        <v>780.1685754731999</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="T45" t="n">
-        <v>780.1685754731999</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="U45" t="n">
-        <v>540.54426285008</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="V45" t="n">
-        <v>297.4645447537141</v>
+        <v>778.3310522028246</v>
       </c>
       <c r="W45" t="n">
-        <v>28.06597548400537</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="X45" t="n">
-        <v>28.06597548400537</v>
+        <v>752.3766942618796</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.06597548400537</v>
+        <v>752.3766942618796</v>
       </c>
     </row>
     <row r="46">
@@ -7813,10 +7813,10 @@
         <v>28.06597548400537</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="O46" t="n">
         <v>130.133623560695</v>
@@ -8535,19 +8535,19 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
         <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
-        <v>177.1666678622357</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9015,7 +9015,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O15" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9489,7 +9489,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9726,13 +9726,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466386</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786801</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518316</v>
       </c>
       <c r="C11" t="n">
         <v>172.057233228111</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0509854869456</v>
+        <v>36.55305216769847</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033345</v>
+        <v>178.2170748458087</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>168.8731344554828</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538032</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W11" t="n">
-        <v>159.748199672699</v>
+        <v>159.7481996726991</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>159.3825527825788</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9389762247655</v>
+        <v>7.441042905518316</v>
       </c>
       <c r="C14" t="n">
         <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891595</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3306479085683</v>
+        <v>193.3306479085684</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0509854869456</v>
+        <v>153.3789927651244</v>
       </c>
       <c r="G14" t="n">
         <v>240.6899088095807</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240824</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.73328122929902</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538032</v>
+        <v>49.36873040538038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.31761724675144</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958189</v>
+        <v>72.00227733958195</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>58.63054179644868</v>
+        <v>204.1373032653821</v>
       </c>
     </row>
     <row r="15">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154338.0991558806</v>
+        <v>154338.0991558804</v>
       </c>
       <c r="C2" t="n">
-        <v>154338.0991558804</v>
+        <v>154338.0991558805</v>
       </c>
       <c r="D2" t="n">
         <v>154427.2302508513</v>
       </c>
       <c r="E2" t="n">
-        <v>132953.7000310985</v>
+        <v>132953.7000310986</v>
       </c>
       <c r="F2" t="n">
         <v>132953.7000310985</v>
@@ -26338,13 +26338,13 @@
         <v>154650.7460502437</v>
       </c>
       <c r="K2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502437</v>
       </c>
       <c r="L2" t="n">
+        <v>154650.7460502436</v>
+      </c>
+      <c r="M2" t="n">
         <v>154650.7460502437</v>
-      </c>
-      <c r="M2" t="n">
-        <v>154650.7460502438</v>
       </c>
       <c r="N2" t="n">
         <v>154650.7460502438</v>
@@ -26353,7 +26353,7 @@
         <v>154650.7460502436</v>
       </c>
       <c r="P2" t="n">
-        <v>154650.7460502436</v>
+        <v>154650.7460502437</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787143</v>
+        <v>279126.1151787142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262473</v>
+        <v>96101.69331262466</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232275</v>
+        <v>46197.36629232282</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924376</v>
+        <v>72254.91485924373</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>424861.9413331364</v>
       </c>
       <c r="E4" t="n">
-        <v>313625.6347290154</v>
+        <v>313625.6347290153</v>
       </c>
       <c r="F4" t="n">
-        <v>313625.6347290154</v>
+        <v>313625.6347290153</v>
       </c>
       <c r="G4" t="n">
-        <v>384233.5027722373</v>
+        <v>384233.5027722372</v>
       </c>
       <c r="H4" t="n">
         <v>384233.5027722372</v>
       </c>
       <c r="I4" t="n">
-        <v>384233.5027722373</v>
+        <v>384233.5027722372</v>
       </c>
       <c r="J4" t="n">
         <v>385080.456523852</v>
       </c>
       <c r="K4" t="n">
-        <v>385080.4565238518</v>
+        <v>385080.456523852</v>
       </c>
       <c r="L4" t="n">
-        <v>385065.6665564734</v>
+        <v>385065.6665564733</v>
       </c>
       <c r="M4" t="n">
         <v>384255.7291831548</v>
       </c>
       <c r="N4" t="n">
-        <v>384255.7291831548</v>
+        <v>384255.7291831549</v>
       </c>
       <c r="O4" t="n">
-        <v>384642.7918468724</v>
+        <v>384642.7918468725</v>
       </c>
       <c r="P4" t="n">
         <v>384642.7918468724</v>
@@ -26476,34 +26476,34 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="F5" t="n">
-        <v>28642.9569377478</v>
+        <v>28642.95693774779</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582419</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="H5" t="n">
         <v>38672.33876582418</v>
       </c>
       <c r="I5" t="n">
-        <v>38672.3387658242</v>
+        <v>38672.33876582418</v>
       </c>
       <c r="J5" t="n">
         <v>47449.67722016352</v>
       </c>
       <c r="K5" t="n">
-        <v>47449.67722016351</v>
+        <v>47449.67722016352</v>
       </c>
       <c r="L5" t="n">
         <v>47324.7475828481</v>
       </c>
       <c r="M5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="N5" t="n">
-        <v>40913.2955986873</v>
+        <v>40913.29559868731</v>
       </c>
       <c r="O5" t="n">
         <v>43797.12782887324</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304235.1332381947</v>
+        <v>-304239.5996224001</v>
       </c>
       <c r="C6" t="n">
-        <v>-304235.1332381949</v>
+        <v>-304239.5996224</v>
       </c>
       <c r="D6" t="n">
-        <v>-305250.6083760754</v>
+        <v>-305253.8014589238</v>
       </c>
       <c r="E6" t="n">
-        <v>-488441.006814379</v>
+        <v>-488750.9646146522</v>
       </c>
       <c r="F6" t="n">
-        <v>-209314.8916356647</v>
+        <v>-209624.8494359381</v>
       </c>
       <c r="G6" t="n">
-        <v>-363694.620906951</v>
+        <v>-363694.6209069509</v>
       </c>
       <c r="H6" t="n">
         <v>-268255.0954878175</v>
       </c>
       <c r="I6" t="n">
-        <v>-268255.0954878177</v>
+        <v>-268255.0954878175</v>
       </c>
       <c r="J6" t="n">
         <v>-421375.670700651</v>
       </c>
       <c r="K6" t="n">
-        <v>-277879.3876937716</v>
+        <v>-277879.3876937717</v>
       </c>
       <c r="L6" t="n">
-        <v>-373841.3614017026</v>
+        <v>-373841.3614017025</v>
       </c>
       <c r="M6" t="n">
-        <v>-316715.6450239211</v>
+        <v>-316715.6450239212</v>
       </c>
       <c r="N6" t="n">
-        <v>-270518.2787315983</v>
+        <v>-270518.2787315984</v>
       </c>
       <c r="O6" t="n">
         <v>-346044.0884847458</v>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
         <v>297.4476709269844</v>
@@ -26707,10 +26707,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K2" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L2" t="n">
         <v>214.3124603908652</v>
@@ -26808,22 +26808,22 @@
         <v>188.4979333192472</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="J4" t="n">
-        <v>448.9587426892761</v>
+        <v>448.9587426892759</v>
       </c>
       <c r="K4" t="n">
         <v>448.9587426892759</v>
       </c>
       <c r="L4" t="n">
-        <v>445.7594930492624</v>
+        <v>445.7594930492625</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="N4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="O4" t="n">
         <v>350.8246935500671</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.1271166407809</v>
+        <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540344</v>
+        <v>57.74670786540352</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.36388418003844</v>
+        <v>90.36388418003833</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C8" t="n">
-        <v>350.2054973811788</v>
+        <v>350.3354128343698</v>
       </c>
       <c r="D8" t="n">
         <v>337.7721596422273</v>
@@ -27916,7 +27916,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X8" t="n">
-        <v>359.9126297478971</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y8" t="n">
         <v>382.2855674184499</v>
@@ -27935,16 +27935,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D9" t="n">
-        <v>159.1723150765785</v>
+        <v>155.9730654365651</v>
       </c>
       <c r="E9" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.6241894799149</v>
       </c>
       <c r="G9" t="n">
-        <v>148.9622183950918</v>
+        <v>145.7629687550784</v>
       </c>
       <c r="H9" t="n">
         <v>127.8372169228968</v>
@@ -27974,7 +27974,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>34.64768193211606</v>
+        <v>31.82978284919219</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
@@ -27983,16 +27983,16 @@
         <v>195.63287444794</v>
       </c>
       <c r="T9" t="n">
-        <v>212.6488107764739</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>234.0431365621689</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>237.4496712753888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>263.8866844940877</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300951</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0.05802066359257196</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530679</v>
+        <v>160.7168484597794</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="12">
@@ -28169,13 +28169,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>138.7297859229982</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28184,13 +28184,13 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>107.3634103439873</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>59.28435595213895</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T12" t="n">
-        <v>26.47299028624307</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W12" t="n">
-        <v>78.20665025776438</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="13">
@@ -28257,7 +28257,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G13" t="n">
         <v>168.7007749271525</v>
@@ -28266,55 +28266,55 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I13" t="n">
-        <v>164.852968067965</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2396075829089</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K13" t="n">
-        <v>99.54875117713294</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L13" t="n">
-        <v>178.1482641530679</v>
+        <v>159.7243600294484</v>
       </c>
       <c r="M13" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O13" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P13" t="n">
-        <v>178.1482641530679</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.1482641530679</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="14">
@@ -28324,34 +28324,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="K14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="L14" t="n">
         <v>141.3051631366612</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>19.41168532311801</v>
+        <v>19.41168532311812</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="15">
@@ -28406,16 +28406,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>155.9072967188629</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446044746268</v>
@@ -28424,7 +28424,7 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I15" t="n">
-        <v>107.3634103439873</v>
+        <v>99.13299170622145</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.1482641530679</v>
+        <v>3.092858000757098</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y15" t="n">
-        <v>34.88635281477841</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="16">
@@ -28506,52 +28506,52 @@
         <v>164.852968067965</v>
       </c>
       <c r="J16" t="n">
-        <v>178.1482641530679</v>
+        <v>120.2396075829089</v>
       </c>
       <c r="K16" t="n">
         <v>67.02998013918997</v>
       </c>
       <c r="L16" t="n">
-        <v>178.1482641530679</v>
+        <v>87.66719972374356</v>
       </c>
       <c r="M16" t="n">
-        <v>25.21686539889344</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52015736928134</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="P16" t="n">
-        <v>173.7171052493474</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.1482641530679</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530679</v>
+        <v>178.1482641530678</v>
       </c>
     </row>
     <row r="17">
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78161896459403</v>
+        <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300943</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,34 +28603,34 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108874</v>
+        <v>52.16021323379289</v>
       </c>
       <c r="Q17" t="n">
-        <v>245.3472348708369</v>
+        <v>89.71173703742195</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4476709269845</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="18">
@@ -28640,10 +28640,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
@@ -28652,10 +28652,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S18" t="n">
         <v>191.5907913200043</v>
@@ -28697,16 +28697,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>195.8356938324978</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V18" t="n">
-        <v>52.15098759615503</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>147.2930094510194</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28752,13 +28752,13 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O19" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P19" t="n">
         <v>58.47859890024886</v>
@@ -28822,10 +28822,10 @@
         <v>297.4476709269844</v>
       </c>
       <c r="J20" t="n">
-        <v>146.4853090233794</v>
+        <v>113.8498598472981</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300943</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28846,10 +28846,10 @@
         <v>278.2096703566692</v>
       </c>
       <c r="R20" t="n">
-        <v>194.8815453823668</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269844</v>
+        <v>227.5169945584482</v>
       </c>
       <c r="T20" t="n">
         <v>297.4476709269844</v>
@@ -28880,13 +28880,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28895,10 +28895,10 @@
         <v>148.7446044746268</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>77.97861943122385</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>52.47517038390259</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022339</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>97.0783250295265</v>
       </c>
     </row>
     <row r="22">
@@ -28989,13 +28989,13 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O22" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P22" t="n">
         <v>58.47859890024886</v>
@@ -29062,28 +29062,28 @@
         <v>76.78161896459403</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300951</v>
+        <v>6.727192146300943</v>
       </c>
       <c r="L23" t="n">
-        <v>141.3051631366614</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>112.4091523741034</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.9316356498858</v>
       </c>
       <c r="P23" t="n">
-        <v>29.42230704784334</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q23" t="n">
         <v>89.71173703742195</v>
       </c>
       <c r="R23" t="n">
-        <v>297.4476709269844</v>
+        <v>234.0395101707449</v>
       </c>
       <c r="S23" t="n">
         <v>297.4476709269844</v>
@@ -29092,7 +29092,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269844</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V23" t="n">
         <v>297.4476709269844</v>
@@ -29117,16 +29117,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>130.4184300020454</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446044746268</v>
@@ -29138,7 +29138,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>191.5907913200043</v>
@@ -29171,7 +29171,7 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2280694968886</v>
+        <v>223.2106779173055</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -29183,7 +29183,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>34.88635281477818</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29226,13 +29226,13 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O25" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P25" t="n">
         <v>58.47859890024886</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
-        <v>213.4847505240023</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="R26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y26" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="27">
@@ -29363,7 +29363,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
@@ -29372,10 +29372,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439873</v>
+        <v>76.21269243362494</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47517038390259</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5907913200043</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W27" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X27" t="n">
-        <v>175.8564597645837</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="28">
@@ -29463,43 +29463,43 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N28" t="n">
-        <v>213.4847505240009</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O28" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P28" t="n">
-        <v>94.08553580701164</v>
+        <v>204.782364401419</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.2169859636892</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R28" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="C29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="D29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="E29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="K29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="L29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="M29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="N29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="P29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="S29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="30">
@@ -29591,13 +29591,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>97.46502495404695</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -29642,22 +29642,22 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W30" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>113.1556046386135</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.4847505240009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29700,43 +29700,43 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O31" t="n">
-        <v>115.044262435507</v>
+        <v>183.782649498947</v>
       </c>
       <c r="P31" t="n">
-        <v>213.4847505240009</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.2169859636892</v>
+        <v>213.484750524001</v>
       </c>
       <c r="R31" t="n">
         <v>203.4299611556341</v>
       </c>
       <c r="S31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="T31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="V31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="W31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="X31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.4847505240009</v>
+        <v>213.484750524001</v>
       </c>
     </row>
     <row r="32">
@@ -29779,7 +29779,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.1953356407514</v>
       </c>
       <c r="N32" t="n">
         <v>214.3124603908652</v>
@@ -29791,7 +29791,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>194.1953356407509</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
         <v>214.3124603908652</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29837,7 +29837,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>135.8113641707914</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
         <v>148.7446044746268</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.869455874161023</v>
       </c>
       <c r="R33" t="n">
         <v>134.7198007890777</v>
@@ -29888,7 +29888,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>7.6804351699015</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29937,19 +29937,19 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928134</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O34" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P34" t="n">
-        <v>214.3124603908652</v>
+        <v>58.47859890024886</v>
       </c>
       <c r="Q34" t="n">
-        <v>198.0430444253316</v>
+        <v>156.0846028943643</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
@@ -30007,16 +30007,16 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>272.0591682562687</v>
+        <v>201.4953028142916</v>
       </c>
       <c r="K35" t="n">
-        <v>6.727192146300951</v>
+        <v>267.1880015163297</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>178.7821234236172</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>26.20679285552264</v>
+        <v>15.09197235108874</v>
       </c>
       <c r="Q35" t="n">
         <v>272.0591682562687</v>
@@ -30071,22 +30071,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>22.20729479638804</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.3634103439873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30119,16 +30119,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280694968886</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243774206982835</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>212.8882882701593</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30174,13 +30174,13 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889344</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N37" t="n">
-        <v>52.07665930312837</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O37" t="n">
-        <v>37.47888399777679</v>
+        <v>73.03538593162384</v>
       </c>
       <c r="P37" t="n">
         <v>58.47859890024886</v>
@@ -30247,10 +30247,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="K38" t="n">
-        <v>6.727192146300951</v>
+        <v>196.6241360743525</v>
       </c>
       <c r="L38" t="n">
-        <v>213.2680391874426</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>15.09197235108874</v>
       </c>
       <c r="Q38" t="n">
-        <v>248.6880729968773</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
         <v>272.0591682562687</v>
@@ -30299,19 +30299,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>111.3295460067073</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
@@ -30323,7 +30323,7 @@
         <v>107.3634103439873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47517038390259</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.902649284033131</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>134.7198007890777</v>
@@ -30356,16 +30356,16 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,7 +30399,7 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I40" t="n">
-        <v>164.852968067965</v>
+        <v>200.4094700018121</v>
       </c>
       <c r="J40" t="n">
         <v>120.2396075829089</v>
@@ -30411,13 +30411,13 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M40" t="n">
-        <v>60.77336733274048</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O40" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P40" t="n">
         <v>58.47859890024886</v>
@@ -30487,16 +30487,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
+        <v>54.69629248006517</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.009769215476</v>
-      </c>
-      <c r="M41" t="n">
-        <v>54.69629248006515</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>241.009769215476</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446044746268</v>
@@ -30596,16 +30596,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>205.288279114279</v>
       </c>
       <c r="W42" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>201.2363314256899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>241.009769215476</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -30642,19 +30642,19 @@
         <v>120.2396075829089</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918997</v>
+        <v>82.86726960827301</v>
       </c>
       <c r="L43" t="n">
         <v>32.15181624817887</v>
       </c>
       <c r="M43" t="n">
-        <v>128.3154998197921</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O43" t="n">
-        <v>37.47888399777679</v>
+        <v>37.47888399777678</v>
       </c>
       <c r="P43" t="n">
         <v>58.47859890024886</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>241.009769215476</v>
       </c>
     </row>
     <row r="44">
@@ -30727,16 +30727,16 @@
         <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>39.60432012897641</v>
+        <v>241.009769215476</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>15.09197235108874</v>
+        <v>54.69629248006521</v>
       </c>
       <c r="Q44" t="n">
         <v>241.009769215476</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>137.0243603682428</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.819148037671606</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.7198007890777</v>
@@ -30830,13 +30830,13 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30885,13 +30885,13 @@
         <v>32.15181624817887</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3154998197921</v>
+        <v>25.21686539889343</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928134</v>
+        <v>16.52015736928133</v>
       </c>
       <c r="O46" t="n">
-        <v>37.47888399777679</v>
+        <v>140.5775184186754</v>
       </c>
       <c r="P46" t="n">
         <v>58.47859890024886</v>
@@ -31756,10 +31756,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K11" t="n">
         <v>51.73619878246058</v>
@@ -31768,25 +31768,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M11" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q11" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T11" t="n">
         <v>1.780413000168793</v>
@@ -31832,31 +31832,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I12" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J12" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L12" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P12" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q12" t="n">
         <v>27.77822605795503</v>
@@ -31865,10 +31865,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S12" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431670529375088</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J13" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L13" t="n">
         <v>27.12388221600458</v>
@@ -31932,25 +31932,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P13" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R13" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S13" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31993,10 +31993,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K14" t="n">
         <v>51.73619878246058</v>
@@ -32005,25 +32005,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M14" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q14" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T14" t="n">
         <v>1.780413000168793</v>
@@ -32069,31 +32069,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I15" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J15" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L15" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P15" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q15" t="n">
         <v>27.77822605795503</v>
@@ -32102,10 +32102,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S15" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431670529375088</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J16" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L16" t="n">
         <v>27.12388221600458</v>
@@ -32169,25 +32169,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P16" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R16" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S16" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,10 +32230,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K17" t="n">
         <v>51.73619878246058</v>
@@ -32242,25 +32242,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M17" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q17" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T17" t="n">
         <v>1.780413000168793</v>
@@ -32306,31 +32306,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I18" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J18" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L18" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P18" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q18" t="n">
         <v>27.77822605795503</v>
@@ -32339,10 +32339,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431670529375088</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J19" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L19" t="n">
         <v>27.12388221600458</v>
@@ -32406,25 +32406,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P19" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R19" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S19" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,10 +32467,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K20" t="n">
         <v>51.73619878246058</v>
@@ -32479,25 +32479,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M20" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q20" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T20" t="n">
         <v>1.780413000168793</v>
@@ -32543,31 +32543,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I21" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J21" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L21" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P21" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q21" t="n">
         <v>27.77822605795503</v>
@@ -32576,10 +32576,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S21" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431670529375088</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J22" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L22" t="n">
         <v>27.12388221600458</v>
@@ -32643,25 +32643,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P22" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R22" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S22" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,10 +32704,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K23" t="n">
         <v>51.73619878246058</v>
@@ -32716,25 +32716,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M23" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q23" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T23" t="n">
         <v>1.780413000168793</v>
@@ -32780,31 +32780,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I24" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J24" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L24" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P24" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q24" t="n">
         <v>27.77822605795503</v>
@@ -32813,10 +32813,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S24" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431670529375088</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J25" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L25" t="n">
         <v>27.12388221600458</v>
@@ -32880,25 +32880,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P25" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R25" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S25" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,10 +32941,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K26" t="n">
         <v>51.73619878246058</v>
@@ -32953,25 +32953,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M26" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q26" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T26" t="n">
         <v>1.780413000168793</v>
@@ -33017,31 +33017,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I27" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J27" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L27" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P27" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q27" t="n">
         <v>27.77822605795503</v>
@@ -33050,10 +33050,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S27" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431670529375088</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J28" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L28" t="n">
         <v>27.12388221600458</v>
@@ -33117,25 +33117,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P28" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R28" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S28" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,10 +33178,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K29" t="n">
         <v>51.73619878246058</v>
@@ -33190,25 +33190,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M29" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q29" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T29" t="n">
         <v>1.780413000168793</v>
@@ -33254,31 +33254,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I30" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J30" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L30" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P30" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q30" t="n">
         <v>27.77822605795503</v>
@@ -33287,10 +33287,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S30" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431670529375088</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J31" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L31" t="n">
         <v>27.12388221600458</v>
@@ -33354,25 +33354,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P31" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R31" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S31" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,10 +33415,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K32" t="n">
         <v>51.73619878246058</v>
@@ -33427,25 +33427,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M32" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q32" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T32" t="n">
         <v>1.780413000168793</v>
@@ -33491,31 +33491,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I33" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J33" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L33" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P33" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q33" t="n">
         <v>27.77822605795503</v>
@@ -33524,10 +33524,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S33" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431670529375088</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J34" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L34" t="n">
         <v>27.12388221600458</v>
@@ -33591,25 +33591,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P34" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R34" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S34" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,10 +33652,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K35" t="n">
         <v>51.73619878246058</v>
@@ -33664,25 +33664,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M35" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q35" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T35" t="n">
         <v>1.780413000168793</v>
@@ -33728,31 +33728,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I36" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J36" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L36" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P36" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q36" t="n">
         <v>27.77822605795503</v>
@@ -33761,10 +33761,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S36" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431670529375088</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J37" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L37" t="n">
         <v>27.12388221600458</v>
@@ -33828,25 +33828,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P37" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R37" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S37" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33889,10 +33889,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K38" t="n">
         <v>51.73619878246058</v>
@@ -33901,25 +33901,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M38" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q38" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T38" t="n">
         <v>1.780413000168793</v>
@@ -33965,31 +33965,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I39" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J39" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L39" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P39" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q39" t="n">
         <v>27.77822605795503</v>
@@ -33998,10 +33998,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S39" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431670529375088</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J40" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L40" t="n">
         <v>27.12388221600458</v>
@@ -34065,25 +34065,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P40" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R40" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S40" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,10 +34126,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K41" t="n">
         <v>51.73619878246058</v>
@@ -34138,25 +34138,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M41" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q41" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T41" t="n">
         <v>1.780413000168793</v>
@@ -34202,31 +34202,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I42" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J42" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L42" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P42" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q42" t="n">
         <v>27.77822605795503</v>
@@ -34235,10 +34235,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S42" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431670529375088</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J43" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L43" t="n">
         <v>27.12388221600458</v>
@@ -34302,25 +34302,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P43" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R43" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S43" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,10 +34363,10 @@
         <v>4.165312310217852</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501026</v>
+        <v>15.68003933501027</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645943</v>
+        <v>34.51977792645944</v>
       </c>
       <c r="K44" t="n">
         <v>51.73619878246058</v>
@@ -34375,25 +34375,25 @@
         <v>64.18332941727857</v>
       </c>
       <c r="M44" t="n">
-        <v>71.41632078032865</v>
+        <v>71.41632078032866</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401902</v>
+        <v>72.57191151401904</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556021</v>
+        <v>68.52759814556022</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521935</v>
+        <v>58.48671957521936</v>
       </c>
       <c r="Q44" t="n">
         <v>43.92109066178819</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318172</v>
+        <v>25.54857067318173</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610826</v>
+        <v>9.268112219610828</v>
       </c>
       <c r="T44" t="n">
         <v>1.780413000168793</v>
@@ -34439,31 +34439,31 @@
         <v>0.2176139204650133</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122628</v>
+        <v>2.101692337122629</v>
       </c>
       <c r="I45" t="n">
-        <v>7.492409103729624</v>
+        <v>7.492409103729625</v>
       </c>
       <c r="J45" t="n">
         <v>20.55974324884584</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000173</v>
+        <v>35.13987592000174</v>
       </c>
       <c r="L45" t="n">
-        <v>47.2498997044758</v>
+        <v>47.24989970447581</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133252</v>
+        <v>55.13840432133253</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427553</v>
+        <v>56.59775381427554</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134024</v>
+        <v>51.77588747134025</v>
       </c>
       <c r="P45" t="n">
-        <v>41.5547143386217</v>
+        <v>41.55471433862171</v>
       </c>
       <c r="Q45" t="n">
         <v>27.77822605795503</v>
@@ -34472,10 +34472,10 @@
         <v>13.5111520092225</v>
       </c>
       <c r="S45" t="n">
-        <v>4.04208312793566</v>
+        <v>4.042083127935661</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8771368109971365</v>
+        <v>0.8771368109971366</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431670529375088</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924974</v>
+        <v>0.1824402007924975</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773297</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014379</v>
+        <v>5.48647440201438</v>
       </c>
       <c r="J46" t="n">
         <v>12.89852219602957</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752833</v>
+        <v>21.19623423752834</v>
       </c>
       <c r="L46" t="n">
         <v>27.12388221600458</v>
@@ -34539,25 +34539,25 @@
         <v>27.91832636309192</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837955</v>
+        <v>25.78709310837956</v>
       </c>
       <c r="P46" t="n">
         <v>22.06531301221259</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545176</v>
+        <v>15.27687899545177</v>
       </c>
       <c r="R46" t="n">
-        <v>8.203174846542655</v>
+        <v>8.203174846542657</v>
       </c>
       <c r="S46" t="n">
         <v>3.17943513562925</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679433</v>
+        <v>0.7795172215679435</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590781</v>
+        <v>0.009951283679590783</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35149,7 +35149,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -35212,7 +35212,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
         <v>3.069987028295762</v>
       </c>
       <c r="O9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,25 +35410,25 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L11" t="n">
         <v>47.192770182586</v>
       </c>
       <c r="M11" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N11" t="n">
-        <v>76.1468016087364</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O11" t="n">
-        <v>188.4979333192472</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>145.6248761086907</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.4365271156459</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35504,7 +35504,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35553,7 +35553,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.22138193462115</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -35562,31 +35562,31 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>13.29529608510276</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90865657015885</v>
       </c>
       <c r="K13" t="n">
-        <v>32.51877103794298</v>
+        <v>111.1182840138778</v>
       </c>
       <c r="L13" t="n">
-        <v>145.996447904889</v>
+        <v>127.5725437812695</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.6281067837865</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>119.669665252819</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.93127818937865</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4210720067669</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
         <v>188.4979333192472</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O14" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P14" t="n">
-        <v>4.319712972029274</v>
+        <v>4.319712972029389</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.4365271156459</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543475</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
@@ -35741,7 +35741,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181805</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.9086565701589</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>145.996447904889</v>
+        <v>55.5153834755647</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>161.6281067837864</v>
       </c>
       <c r="O16" t="n">
-        <v>140.6693801552911</v>
+        <v>140.669380155291</v>
       </c>
       <c r="P16" t="n">
-        <v>115.2385063490985</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.93127818937865</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,10 +35878,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150843</v>
+        <v>56.43790171150837</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35890,31 +35890,31 @@
         <v>47.192770182586</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>37.06824088270415</v>
       </c>
       <c r="Q17" t="n">
-        <v>155.635497833415</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>102.5661255446176</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9306763685363</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35978,7 +35978,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>56.43790171150837</v>
       </c>
       <c r="J20" t="n">
-        <v>69.70369005878541</v>
+        <v>37.06824088270412</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,13 +36127,13 @@
         <v>47.192770182586</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36142,10 +36142,10 @@
         <v>188.4979333192472</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>102.5661255446176</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93067636853624</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>74.98178952716516</v>
@@ -36215,7 +36215,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>188.4979333192474</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514382</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936138</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="P23" t="n">
-        <v>14.33033469675459</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5661255446176</v>
+        <v>39.1579647883781</v>
       </c>
       <c r="S23" t="n">
         <v>69.93067636853624</v>
@@ -36388,7 +36388,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433466</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192474</v>
+        <v>188.4979333192472</v>
       </c>
       <c r="O24" t="n">
         <v>133.0312521404388</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181886</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
         <v>206.7575583777</v>
@@ -36601,22 +36601,22 @@
         <v>260.677520706587</v>
       </c>
       <c r="M26" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N26" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0510481933636</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P26" t="n">
         <v>198.3927781729122</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.773013486579</v>
+        <v>123.7730134865792</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6032051416341</v>
+        <v>18.60320514163416</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36689,7 +36689,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>196.9645931547196</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>35.60693690676277</v>
+        <v>146.3037655011701</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.26776456031178</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
@@ -36838,13 +36838,13 @@
         <v>260.677520706587</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704123</v>
+        <v>295.1634364704124</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933623</v>
+        <v>248.0510481933624</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163416</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36926,7 +36926,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37002,13 +37002,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>77.56537843773025</v>
+        <v>146.3037655011702</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0061516237521</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26776456031178</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>137.5308414262712</v>
       </c>
       <c r="K32" t="n">
-        <v>207.5852682445643</v>
+        <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
         <v>261.5052305734512</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>275.8740215871628</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
@@ -37087,10 +37087,10 @@
         <v>199.2204880397765</v>
       </c>
       <c r="Q32" t="n">
-        <v>104.4835986033289</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>19.4309150084984</v>
+        <v>19.43091500849837</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37163,7 +37163,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.7923030215838</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.8338614906164</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.82605846164239</v>
+        <v>28.86761693067511</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>31.04939904079268</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2775492916747</v>
+        <v>124.7136838496975</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4608093700288</v>
       </c>
       <c r="L35" t="n">
         <v>47.192770182586</v>
       </c>
       <c r="M35" t="n">
-        <v>260.4608093700286</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N35" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O35" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P35" t="n">
-        <v>11.1148205044339</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>182.3474312188468</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37400,7 +37400,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>35.55650193384704</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>195.2775492916747</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>189.8969439280516</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>47.192770182586</v>
       </c>
       <c r="M38" t="n">
-        <v>81.67868594641141</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>158.9763359594553</v>
+        <v>182.3474312188468</v>
       </c>
       <c r="R38" t="n">
         <v>77.1776228739019</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37637,7 +37637,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -37783,16 +37783,16 @@
         <v>234.2825770691751</v>
       </c>
       <c r="L41" t="n">
-        <v>288.2025393980621</v>
+        <v>101.8890626626512</v>
       </c>
       <c r="M41" t="n">
-        <v>136.3749784264766</v>
+        <v>81.67868594641142</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514382</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O41" t="n">
-        <v>34.56629766936138</v>
+        <v>275.5760668848374</v>
       </c>
       <c r="P41" t="n">
         <v>225.9177968643873</v>
@@ -37801,10 +37801,10 @@
         <v>151.2980321780541</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12822383310921</v>
+        <v>46.12822383310922</v>
       </c>
       <c r="S41" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702787</v>
       </c>
       <c r="T41" t="n">
         <v>18.54388781565679</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37874,7 +37874,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>63.39284855050795</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>15.83728946908303</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>23.86849640130762</v>
       </c>
     </row>
     <row r="44">
@@ -38023,25 +38023,25 @@
         <v>288.2025393980621</v>
       </c>
       <c r="M44" t="n">
-        <v>121.2830060753878</v>
+        <v>322.6884551618875</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606199</v>
+        <v>76.08878094514384</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936138</v>
+        <v>34.56629766936139</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.60432012897648</v>
       </c>
       <c r="Q44" t="n">
         <v>151.2980321780541</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12822383310921</v>
+        <v>46.12822383310922</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702787</v>
       </c>
       <c r="T44" t="n">
         <v>18.54388781565679</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543473</v>
+        <v>38.34679395543474</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38111,7 +38111,7 @@
         <v>133.0312521404388</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181808</v>
+        <v>84.4698113718181</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
         <v>103.0986344208986</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
